--- a/Team-Data/2013-14/2-10-2013-14.xlsx
+++ b/Team-Data/2013-14/2-10-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -768,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
@@ -783,7 +850,7 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -798,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
         <v>34</v>
       </c>
       <c r="G3" t="n">
-        <v>0.358</v>
+        <v>0.346</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J3" t="n">
         <v>83.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -881,10 +948,10 @@
         <v>0.331</v>
       </c>
       <c r="O3" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P3" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
         <v>0.767</v>
@@ -899,7 +966,7 @@
         <v>43.2</v>
       </c>
       <c r="U3" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V3" t="n">
         <v>15.5</v>
@@ -920,13 +987,13 @@
         <v>18.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.4</v>
+        <v>-3.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -935,19 +1002,19 @@
         <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -959,7 +1026,7 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -980,10 +1047,10 @@
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>14</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
@@ -1311,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1341,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1514,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
         <v>14</v>
@@ -1529,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX6" t="n">
         <v>8</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>-5.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
@@ -1723,7 +1790,7 @@
         <v>13</v>
       </c>
       <c r="BA7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="J9" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.449</v>
+        <v>0.452</v>
       </c>
       <c r="L9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M9" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="N9" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="O9" t="n">
         <v>18.9</v>
@@ -1979,28 +2046,28 @@
         <v>25.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="R9" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S9" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="T9" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="U9" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V9" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y9" t="n">
         <v>5.4</v>
@@ -2009,22 +2076,22 @@
         <v>22.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.3</v>
+        <v>103.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.9</v>
+        <v>-0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
         <v>16</v>
@@ -2033,25 +2100,25 @@
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
@@ -2066,34 +2133,34 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
       </c>
       <c r="BB9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2189,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
         <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>0.431</v>
+        <v>0.42</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J10" t="n">
         <v>86</v>
@@ -2146,7 +2213,7 @@
         <v>0.45</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M10" t="n">
         <v>19.4</v>
@@ -2164,22 +2231,22 @@
         <v>0.666</v>
       </c>
       <c r="R10" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T10" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U10" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V10" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X10" t="n">
         <v>5.2</v>
@@ -2188,40 +2255,40 @@
         <v>4.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -2251,16 +2318,16 @@
         <v>7</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2272,7 +2339,7 @@
         <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
         <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>0.596</v>
+        <v>0.588</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J11" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L11" t="n">
         <v>9.300000000000001</v>
@@ -2334,37 +2401,37 @@
         <v>24.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
       <c r="O11" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
       <c r="R11" t="n">
         <v>11.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="T11" t="n">
-        <v>46</v>
+        <v>45.7</v>
       </c>
       <c r="U11" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V11" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y11" t="n">
         <v>4.4</v>
@@ -2376,28 +2443,28 @@
         <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.4</v>
+        <v>103.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>6</v>
@@ -2406,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2415,10 +2482,10 @@
         <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2430,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>10</v>
@@ -2442,7 +2509,7 @@
         <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
         <v>11</v>
@@ -2454,10 +2521,10 @@
         <v>20</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="n">
         <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.673</v>
+        <v>0.667</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,7 +2571,7 @@
         <v>37.4</v>
       </c>
       <c r="J12" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K12" t="n">
         <v>0.473</v>
@@ -2516,31 +2583,31 @@
         <v>25.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="P12" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R12" t="n">
         <v>10.9</v>
       </c>
       <c r="S12" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T12" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U12" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W12" t="n">
         <v>7.4</v>
@@ -2561,13 +2628,13 @@
         <v>105.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2621,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2636,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -2668,55 +2735,55 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="n">
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>0.784</v>
+        <v>0.78</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
         <v>81</v>
       </c>
       <c r="K13" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
         <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O13" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="T13" t="n">
-        <v>45.6</v>
+        <v>45.4</v>
       </c>
       <c r="U13" t="n">
         <v>20.5</v>
@@ -2731,22 +2798,22 @@
         <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
         <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2761,22 +2828,22 @@
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
         <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2785,7 +2852,7 @@
         <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
@@ -2794,10 +2861,10 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
@@ -2806,7 +2873,7 @@
         <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>10</v>
@@ -2815,7 +2882,7 @@
         <v>9</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -2937,13 +3004,13 @@
         <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>-5</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
         <v>27</v>
@@ -3155,13 +3222,13 @@
         <v>24</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
         <v>20</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3310,10 +3377,10 @@
         <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,13 +3389,13 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
       </c>
       <c r="AP16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ16" t="n">
         <v>19</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>6</v>
@@ -3483,13 +3550,13 @@
         <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
         <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -3578,85 +3645,85 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="n">
-        <v>0.176</v>
+        <v>0.18</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
       </c>
       <c r="I18" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>82.8</v>
+        <v>83</v>
       </c>
       <c r="K18" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N18" t="n">
         <v>0.351</v>
       </c>
       <c r="O18" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R18" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V18" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W18" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
         <v>5.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
         <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.6</v>
+        <v>-9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3692,7 +3759,7 @@
         <v>28</v>
       </c>
       <c r="AP18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
         <v>18</v>
@@ -3707,10 +3774,10 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="n">
-        <v>0.462</v>
+        <v>0.471</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J19" t="n">
         <v>88</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>7.5</v>
       </c>
       <c r="M19" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.341</v>
+        <v>0.343</v>
       </c>
       <c r="O19" t="n">
         <v>21.3</v>
       </c>
       <c r="P19" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.786</v>
+        <v>0.783</v>
       </c>
       <c r="R19" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S19" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T19" t="n">
-        <v>45.8</v>
+        <v>45.9</v>
       </c>
       <c r="U19" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V19" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W19" t="n">
         <v>8.699999999999999</v>
@@ -3832,13 +3899,13 @@
         <v>23.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.3</v>
+        <v>105.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3847,7 +3914,7 @@
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>25</v>
@@ -3859,16 +3926,16 @@
         <v>3</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>16</v>
       </c>
       <c r="AM19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3883,16 +3950,16 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW19" t="n">
         <v>6</v>
@@ -3910,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
         <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" t="n">
-        <v>0.431</v>
+        <v>0.44</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,19 +4027,19 @@
         <v>38.1</v>
       </c>
       <c r="J20" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L20" t="n">
         <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
       <c r="O20" t="n">
         <v>17.5</v>
@@ -3981,46 +4048,46 @@
         <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R20" t="n">
         <v>12.3</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W20" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA20" t="n">
         <v>19.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>19</v>
@@ -4032,10 +4099,10 @@
         <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4068,13 +4135,13 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>9</v>
@@ -4086,7 +4153,7 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,10 +4281,10 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
         <v>16</v>
@@ -4253,7 +4320,7 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4645,7 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
@@ -4599,10 +4666,10 @@
         <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ23" t="n">
         <v>14</v>
@@ -4611,7 +4678,7 @@
         <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -4670,58 +4737,58 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>0.283</v>
+        <v>0.288</v>
       </c>
       <c r="H24" t="n">
         <v>48.7</v>
       </c>
       <c r="I24" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J24" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L24" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M24" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.313</v>
+        <v>0.316</v>
       </c>
       <c r="O24" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P24" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q24" t="n">
         <v>0.715</v>
       </c>
       <c r="R24" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S24" t="n">
         <v>32.7</v>
       </c>
       <c r="T24" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U24" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="V24" t="n">
         <v>17.5</v>
@@ -4733,7 +4800,7 @@
         <v>4.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z24" t="n">
         <v>21.8</v>
@@ -4742,46 +4809,46 @@
         <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>100.3</v>
+        <v>100.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.2</v>
+        <v>-9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ24" t="n">
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN24" t="n">
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4790,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>13</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4820,7 +4887,7 @@
         <v>15</v>
       </c>
       <c r="BB24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>3.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4945,7 +5012,7 @@
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ25" t="n">
         <v>9</v>
@@ -4978,7 +5045,7 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>30</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>4.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
       </c>
       <c r="AF26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5133,7 +5200,7 @@
         <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5142,10 +5209,10 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
@@ -5187,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="BC26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5306,7 +5373,7 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5324,7 +5391,7 @@
         <v>25</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5336,7 +5403,7 @@
         <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS27" t="n">
         <v>17</v>
@@ -5351,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="AW27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" t="n">
         <v>37</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.712</v>
+        <v>0.725</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5419,22 +5486,22 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.391</v>
+        <v>0.393</v>
       </c>
       <c r="O28" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="P28" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="Q28" t="n">
         <v>0.773</v>
@@ -5443,25 +5510,25 @@
         <v>8.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U28" t="n">
         <v>24.7</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>5.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z28" t="n">
         <v>17.9</v>
@@ -5470,22 +5537,22 @@
         <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
       </c>
       <c r="AF28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
         <v>19</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM28" t="n">
         <v>18</v>
@@ -5524,19 +5591,19 @@
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY28" t="n">
         <v>18</v>
@@ -5551,7 +5618,7 @@
         <v>9</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="n">
         <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.529</v>
+        <v>0.52</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5598,70 +5665,70 @@
         <v>36.1</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L29" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O29" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="P29" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R29" t="n">
         <v>12.1</v>
       </c>
       <c r="S29" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T29" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U29" t="n">
         <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y29" t="n">
         <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
@@ -5676,22 +5743,22 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
         <v>9</v>
@@ -5700,16 +5767,16 @@
         <v>9</v>
       </c>
       <c r="AR29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS29" t="n">
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5730,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5870,10 +5937,10 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
         <v>22</v>
@@ -5894,7 +5961,7 @@
         <v>27</v>
       </c>
       <c r="AV30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6043,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6073,7 +6140,7 @@
         <v>17</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-10-2013-14</t>
+          <t>2014-02-10</t>
         </is>
       </c>
     </row>
